--- a/phan-chia-task.xlsx
+++ b/phan-chia-task.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Task name</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>https://nhaty7400.github.io/CAPSTONE3_THE_SHOES_SHOP/</t>
+  </si>
+  <si>
+    <t>https://youtu.be/3GO6sJWEAkg?si=sU20aNtdDnpz4e2k</t>
   </si>
 </sst>
 </file>
@@ -676,7 +679,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -884,7 +887,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="1:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>7</v>
       </c>
@@ -899,7 +902,9 @@
       <c r="A23" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="9"/>
+      <c r="B23" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
